--- a/biology/Botanique/Rêve_d'Or/Rêve_d'Or.xlsx
+++ b/biology/Botanique/Rêve_d'Or/Rêve_d'Or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%AAve_d%27Or</t>
+          <t>Rêve_d'Or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Rêve d'Or' est un cultivar de rosier grimpant obtenu en 1869 par le rosiériste lyonnais Ducher (1820-1874). Il est toujours très apprécié des amateurs de roses anciennes. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%AAve_d%27Or</t>
+          <t>Rêve_d'Or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier grimpant se couvre de roses jaune d'or voire jaune cuivré, dont les boutons sont rose foncé, laissant la place à des rosettes turbinées puis de plus en plus épanouies à l'allure chiffonnée en bouquets[1]. Elles sont parfumées et leur floraison est très remontante. En forme de globes de 26 à 40 pétales, elles résistent à la pluie.
-Le buisson présente un feuillage d'abord pourpre puis vert mat[2]. Ses rameaux s'élèvent de 300 cm à 550 cm[3].
-Sa zone de rusticité est de 6b à 9b (-15°)[4]. Il a besoin d'être abrité du vent et d'être exposé aux rayons de soleil. Il est parfait pour couvrir des barrières et des murets. 
-'Rêve d'Or' est issu d'un semis de 'Madame Schultz'. Tchekhov avait planté des roses 'Rêve d'Or' dans le jardin de sa villa de Yalta en Crimée[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier grimpant se couvre de roses jaune d'or voire jaune cuivré, dont les boutons sont rose foncé, laissant la place à des rosettes turbinées puis de plus en plus épanouies à l'allure chiffonnée en bouquets. Elles sont parfumées et leur floraison est très remontante. En forme de globes de 26 à 40 pétales, elles résistent à la pluie.
+Le buisson présente un feuillage d'abord pourpre puis vert mat. Ses rameaux s'élèvent de 300 cm à 550 cm.
+Sa zone de rusticité est de 6b à 9b (-15°). Il a besoin d'être abrité du vent et d'être exposé aux rayons de soleil. Il est parfait pour couvrir des barrières et des murets. 
+'Rêve d'Or' est issu d'un semis de 'Madame Schultz'. Tchekhov avait planté des roses 'Rêve d'Or' dans le jardin de sa villa de Yalta en Crimée.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%AAve_d%27Or</t>
+          <t>Rêve_d'Or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a donné naissance au rosier de Noisette jaune 'Madame Pierre Cochet' (Cochet 1891) et au rosier thé 'Madame Jules Gravereaux' (Soupert &amp; Notting, 1900).
 </t>
